--- a/src/test/resources/Exceldata/Data.xlsx
+++ b/src/test/resources/Exceldata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRIYESIN\eclipse-workspace\io.Testing-NoBroker\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B229C94-4029-4CF9-A611-00298B201CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFF9AF-610B-4C36-B8EB-261B24443A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Mahesh Sharma</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Generate Rent Receipt Now</t>
+  </si>
+  <si>
+    <t>jjdvs</t>
+  </si>
+  <si>
+    <t>sevsvsev</t>
+  </si>
+  <si>
+    <t>sejvbsjebv</t>
+  </si>
+  <si>
+    <t>sehv shvks</t>
+  </si>
+  <si>
+    <t>abc456@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -381,57 +396,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>20000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{3F2385AF-57F6-4C29-8D34-93C52AB85604}"/>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{3F2385AF-57F6-4C29-8D34-93C52AB85604}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{4AD72E32-8DB2-46FF-8B9C-95E68F6015C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>